--- a/Danh sách khách hàng.xlsx
+++ b/Danh sách khách hàng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manhn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\Debug\MISA.Import-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE550905-7295-4728-877B-91BE7B6B26C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834188DB-7720-4C8E-B6D3-27ED5FA9DD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách LĐ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="442">
   <si>
     <t>STT</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Phương thức đóng</t>
   </si>
   <si>
-    <t>15/09/1990</t>
-  </si>
-  <si>
     <t>Nữ</t>
   </si>
   <si>
@@ -1340,10 +1337,25 @@
     <t>KH003</t>
   </si>
   <si>
-    <t>KH004</t>
-  </si>
-  <si>
     <t>KH005</t>
+  </si>
+  <si>
+    <t>10/10/2001</t>
+  </si>
+  <si>
+    <t>/1999</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>10/2000</t>
+  </si>
+  <si>
+    <t>1/1990</t>
+  </si>
+  <si>
+    <t>1989</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1511,6 +1523,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1793,42 +1820,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="7" customWidth="1"/>
     <col min="6" max="6" width="10" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
-    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="10.109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="7"/>
+    <col min="9" max="9" width="15.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>14</v>
@@ -1840,13 +1867,13 @@
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1854,7 +1881,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1862,373 +1889,157 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1990</v>
+        <v>421</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>441</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="4">
         <v>978256145</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>437</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I5" s="4">
         <v>978256145</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="4">
         <v>978256145</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>418</v>
+        <v>424</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>417</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="4">
         <v>978256145</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>418</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2240,6 +2051,7 @@
     <hyperlink ref="J7" r:id="rId4" xr:uid="{1DCA3B88-492D-4B17-AA96-8F2CB6F20E0B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2269,49 +2081,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="11.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -2319,122 +2132,46 @@
       <c r="C3" s="4">
         <v>988554241</v>
       </c>
-      <c r="D3" s="4">
-        <v>1999</v>
+      <c r="D3" s="20" t="s">
+        <v>438</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>1960</v>
+      <c r="D4" s="20" t="s">
+        <v>439</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>1954</v>
+      <c r="D5" s="20" t="s">
+        <v>436</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2458,32 +2195,32 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="29.5703125" customWidth="1"/>
-    <col min="27" max="27" width="55.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="19" max="19" width="29.5546875" customWidth="1"/>
+    <col min="27" max="27" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>15</v>
@@ -2492,16 +2229,16 @@
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>1</v>
@@ -2510,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>3</v>
@@ -2525,7 +2262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2533,25 +2270,25 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>9</v>
@@ -2566,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="AA3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AE3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AG3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2586,28 +2323,28 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="U4" s="13">
         <v>30</v>
@@ -2619,1604 +2356,1604 @@
         <v>10</v>
       </c>
       <c r="AA4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AE4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AG4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AG4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I5" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I5" s="10" t="s">
+      <c r="K5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="AA5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AG5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AG5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I6" s="10" t="s">
+      <c r="K6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="Q6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="U6" s="13">
         <v>8</v>
       </c>
       <c r="AA6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AG6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AG6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:33" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="Q7" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="AA7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="18" t="s">
+      <c r="K8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG8" s="18" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="5" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I9" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AG8" s="18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I9" s="10" t="s">
+      <c r="K9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AA9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I10" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I10" s="10" t="s">
+      <c r="K10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I11" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I11" s="10" t="s">
+      <c r="K11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="M11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I12" s="10" t="s">
+      <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="AA12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AA12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I13" s="10" t="s">
+      <c r="K13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="M13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="AA13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AA13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I14" s="10" t="s">
+      <c r="K14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="M14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="AA14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AA14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I15" s="10" t="s">
+      <c r="K15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="AA15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I16" s="10" t="s">
+      <c r="K16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="M16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="AA16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" s="5" t="s">
+    </row>
+    <row r="17" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I17" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I17" s="10" t="s">
+      <c r="K17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="M17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="AA17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AA17" s="5" t="s">
+    </row>
+    <row r="18" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I18" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I18" s="10" t="s">
+      <c r="K18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="AA18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="5" t="s">
+    </row>
+    <row r="19" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I19" s="10" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="19" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I19" s="10" t="s">
+      <c r="K19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="M19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AA19" s="5" t="s">
+    </row>
+    <row r="20" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I20" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I20" s="10" t="s">
+      <c r="K20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="AA20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AA20" s="5" t="s">
+    </row>
+    <row r="21" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I21" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I21" s="10" t="s">
+      <c r="K21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AA21" s="5" t="s">
+    </row>
+    <row r="22" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I22" s="10" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I22" s="10" t="s">
+      <c r="K22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="AA22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AA22" s="5" t="s">
+    </row>
+    <row r="23" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I23" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I23" s="10" t="s">
+      <c r="K23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="M23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="AA23" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AA23" s="5" t="s">
+    </row>
+    <row r="24" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I24" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I24" s="10" t="s">
+      <c r="K24" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="M24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="AA24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AA24" s="5" t="s">
+    </row>
+    <row r="25" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I25" s="10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I25" s="10" t="s">
+      <c r="K25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="M25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" s="5" t="s">
+    </row>
+    <row r="26" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I26" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I26" s="10" t="s">
+      <c r="K26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="AA26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AA26" s="5" t="s">
+    </row>
+    <row r="27" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I27" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I27" s="10" t="s">
+      <c r="K27" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="AA27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AA27" s="5" t="s">
+    </row>
+    <row r="28" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I28" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I28" s="10" t="s">
+      <c r="K28" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="AA28" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AA28" s="5" t="s">
+    </row>
+    <row r="29" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I29" s="10" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I29" s="10" t="s">
+      <c r="K29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="AA29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AA29" s="5" t="s">
+    </row>
+    <row r="30" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I30" s="10" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I30" s="10" t="s">
+      <c r="K30" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="AA30" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AA30" s="5" t="s">
+    </row>
+    <row r="31" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I31" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I31" s="10" t="s">
+      <c r="K31" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="AA31" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AA31" s="5" t="s">
+    </row>
+    <row r="32" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I32" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I32" s="10" t="s">
+      <c r="K32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="AA32" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AA32" s="5" t="s">
+    </row>
+    <row r="33" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I33" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I33" s="10" t="s">
+      <c r="K33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="AA33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AA33" s="5" t="s">
+    </row>
+    <row r="34" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I34" s="10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I34" s="10" t="s">
+      <c r="K34" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="AA34" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AA34" s="5" t="s">
+    </row>
+    <row r="35" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I35" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="35" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I35" s="10" t="s">
+      <c r="K35" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="AA35" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AA35" s="5" t="s">
+    </row>
+    <row r="36" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I36" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="36" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I36" s="10" t="s">
+      <c r="K36" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="AA36" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="AA36" s="5" t="s">
+    </row>
+    <row r="37" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I37" s="10" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="37" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I37" s="10" t="s">
+      <c r="K37" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="AA37" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AA37" s="5" t="s">
+    </row>
+    <row r="38" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I38" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="38" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I38" s="10" t="s">
+      <c r="K38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="AA38" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AA38" s="5" t="s">
+    </row>
+    <row r="39" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I39" s="10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="39" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I39" s="10" t="s">
+      <c r="K39" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="AA39" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="AA39" s="5" t="s">
+    </row>
+    <row r="40" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I40" s="10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="40" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I40" s="10" t="s">
+      <c r="K40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="AA40" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AA40" s="5" t="s">
+    </row>
+    <row r="41" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I41" s="10" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I41" s="10" t="s">
+      <c r="K41" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="AA41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AA41" s="5" t="s">
+    </row>
+    <row r="42" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I42" s="10" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="42" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I42" s="10" t="s">
+      <c r="K42" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="AA42" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AA42" s="5" t="s">
+    </row>
+    <row r="43" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I43" s="10" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="43" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I43" s="10" t="s">
+      <c r="K43" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="AA43" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AA43" s="5" t="s">
+    </row>
+    <row r="44" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I44" s="10" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="44" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I44" s="10" t="s">
+      <c r="K44" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="AA44" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AA44" s="5" t="s">
+    </row>
+    <row r="45" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I45" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I45" s="10" t="s">
+      <c r="K45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="AA45" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AA45" s="5" t="s">
+    </row>
+    <row r="46" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I46" s="10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I46" s="10" t="s">
+      <c r="K46" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="5" t="s">
+    </row>
+    <row r="47" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I47" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="47" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I47" s="10" t="s">
+      <c r="K47" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="5" t="s">
+    </row>
+    <row r="48" spans="9:27" x14ac:dyDescent="0.3">
+      <c r="I48" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="9:27" x14ac:dyDescent="0.25">
-      <c r="I48" s="10" t="s">
+      <c r="K48" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="K48" s="5" t="s">
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I49" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I49" s="10" t="s">
+      <c r="K49" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K49" s="5" t="s">
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I50" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="10" t="s">
+      <c r="K50" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="K50" s="5" t="s">
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I51" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I51" s="10" t="s">
+      <c r="K51" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K51" s="5" t="s">
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I52" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="10" t="s">
+      <c r="K52" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K52" s="5" t="s">
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I53" s="10" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="10" t="s">
+      <c r="K53" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="K53" s="5" t="s">
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I54" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="10" t="s">
+      <c r="K54" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="K54" s="5" t="s">
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I55" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="10" t="s">
+      <c r="K55" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K55" s="5" t="s">
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I56" s="10" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I56" s="10" t="s">
+      <c r="K56" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K56" s="5" t="s">
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I57" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I57" s="10" t="s">
+      <c r="K57" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="K57" s="5" t="s">
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I58" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="10" t="s">
+    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I59" s="10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I59" s="10" t="s">
+    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I60" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I60" s="10" t="s">
+    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I61" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="10" t="s">
+    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I62" s="10" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I62" s="10" t="s">
+    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I63" s="10" t="s">
+    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="I64" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="10" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="10" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="10" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="10" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="10" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="10" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="10" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="10" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="10" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="10" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="10" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="10" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" s="10" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" s="10" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" s="10" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="10" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="10" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="10" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" s="10" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" s="10" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="10" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" s="10" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="10" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" s="10" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="10" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="10" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="10" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" s="10" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="10" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" s="10" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="10" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="10" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="10" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" s="10" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="10" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" s="10" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" s="10" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" s="10" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" s="10" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="10" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" s="10" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="10" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="10" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="10" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="10" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="10" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="10" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="10" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" s="10" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" s="10" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="10" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="10" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="10" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="10" t="s">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I109" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" s="10" t="s">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I110" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" s="10" t="s">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" s="10" t="s">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I112" s="10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" s="10" t="s">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="10" t="s">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="10" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" s="10" t="s">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="10" t="s">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I116" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" s="10" t="s">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" s="10" t="s">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" s="10" t="s">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" s="10" t="s">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" s="10" t="s">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I121" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" s="10" t="s">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" s="10" t="s">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="10" t="s">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="10" t="s">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I125" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" s="10" t="s">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I126" s="10" t="s">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I127" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" s="10" t="s">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I128" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I128" s="10" t="s">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="10" t="s">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" s="10" t="s">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" s="10" t="s">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" s="10" t="s">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" s="10" t="s">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" s="10" t="s">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" s="10" t="s">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I136" s="10" t="s">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I137" s="10" t="s">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" s="10" t="s">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" s="10" t="s">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I140" s="10" t="s">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" s="10" t="s">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I142" s="10" t="s">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="10" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" s="10" t="s">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" s="10" t="s">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I145" s="10" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" s="10" t="s">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I146" s="10" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="10" t="s">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" s="10" t="s">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I148" s="10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" s="10" t="s">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I149" s="10" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" s="10" t="s">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I150" s="10" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" s="10" t="s">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I151" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" s="10" t="s">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I152" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" s="10" t="s">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="10" t="s">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I154" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I154" s="10" t="s">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I155" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" s="10" t="s">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I156" s="10" t="s">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I157" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" s="10" t="s">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I158" s="10" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" s="10" t="s">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I159" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" s="10" t="s">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I160" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I160" s="10" t="s">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I161" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" s="10" t="s">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I162" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" s="10" t="s">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I163" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" s="10" t="s">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I164" s="10" t="s">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" s="10" t="s">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="10" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I166" s="10" t="s">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" s="10" t="s">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I168" s="10" t="s">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" s="10" t="s">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I170" s="10" t="s">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" s="10" t="s">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I172" s="10" t="s">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" s="10" t="s">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="10" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I174" s="10" t="s">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" s="10" t="s">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I176" s="10" t="s">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="10" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="10" t="s">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="10" t="s">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="10" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="10" t="s">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" s="10" t="s">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I181" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" s="10" t="s">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I182" s="10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" s="10" t="s">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I183" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" s="10" t="s">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I184" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" s="10" t="s">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I185" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" s="10" t="s">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I186" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I186" s="10" t="s">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I187" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" s="10" t="s">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I188" s="10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I188" s="10" t="s">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I189" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" s="10" t="s">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I190" s="10" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I190" s="10" t="s">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I191" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" s="10" t="s">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I192" s="10" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I192" s="10" t="s">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I193" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" s="10" t="s">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I194" s="10" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" s="10" t="s">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I195" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" s="10" t="s">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I196" s="10" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" s="10" t="s">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I197" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" s="10" t="s">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I198" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" s="10" t="s">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I199" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" s="10" t="s">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I200" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I200" s="10" t="s">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I201" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" s="10" t="s">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I202" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I202" s="10" t="s">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I203" s="10" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" s="10" t="s">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I204" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" s="10" t="s">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I205" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" s="10" t="s">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I206" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" s="10" t="s">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I207" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I207" s="10" t="s">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I208" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I208" s="10" t="s">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I209" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" s="10" t="s">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I210" s="10" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" s="10" t="s">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I211" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" s="10" t="s">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I212" s="10" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="10" t="s">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I213" s="10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" s="10" t="s">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I214" s="10" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" s="10" t="s">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I215" s="10" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" s="10" t="s">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I216" s="10" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="10" t="s">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I217" s="10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I217" s="10" t="s">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I218" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" s="10" t="s">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I219" s="10" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I219" s="10" t="s">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I220" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" s="10" t="s">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I221" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I221" s="10" t="s">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I222" s="10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" s="10" t="s">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I223" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I223" s="10" t="s">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I224" s="10" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" s="10" t="s">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I225" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="10" t="s">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I226" s="10" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" s="10" t="s">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I227" s="10" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I227" s="10" t="s">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I228" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" s="10" t="s">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I229" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" s="10" t="s">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I230" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" s="10" t="s">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I231" s="10" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" s="10" t="s">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I232" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" s="10" t="s">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I233" s="10" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I233" s="10" t="s">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I234" s="10" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" s="10" t="s">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I235" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I236" s="10" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I235" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" s="10" t="s">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I237" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I237" s="10" t="s">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I238" s="10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" s="10" t="s">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I239" s="10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I239" s="10" t="s">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I240" s="10" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" s="10" t="s">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I241" s="10" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="10" t="s">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I242" s="10" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" s="10" t="s">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I243" s="10" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Danh sách khách hàng.xlsx
+++ b/Danh sách khách hàng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\Debug\MISA.Import-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834188DB-7720-4C8E-B6D3-27ED5FA9DD1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E3B23-2D74-471A-92E8-AE530AF40F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách LĐ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="452">
   <si>
     <t>STT</t>
   </si>
@@ -1356,6 +1356,36 @@
   </si>
   <si>
     <t>1989</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh 6</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh 7</t>
+  </si>
+  <si>
+    <t>KH006</t>
+  </si>
+  <si>
+    <t>KH007</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đạt</t>
+  </si>
+  <si>
+    <t>21/05/1999</t>
+  </si>
+  <si>
+    <t>21/05/2000</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đạt 2</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đạt 3</t>
+  </si>
+  <si>
+    <t>21/05/2001</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2041,6 +2071,70 @@
         <v>418</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4">
+        <v>978256145</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4">
+        <v>978256145</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2049,9 +2143,11 @@
     <hyperlink ref="J5" r:id="rId2" xr:uid="{0322C1E4-1700-4C25-A11C-B568F4ACD731}"/>
     <hyperlink ref="J6" r:id="rId3" xr:uid="{681E0115-1150-4AEF-8948-430DFDD01D99}"/>
     <hyperlink ref="J7" r:id="rId4" xr:uid="{1DCA3B88-492D-4B17-AA96-8F2CB6F20E0B}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{FA7E405C-249D-47B0-AB05-6DFD3601CC90}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{E6279E93-B443-4CB6-AFF1-4052A75734F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2081,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,6 +2262,57 @@
         <v>436</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="4">
+        <v>868389687</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="4">
+        <v>868389688</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C8" s="4">
+        <v>868389689</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Danh sách khách hàng.xlsx
+++ b/Danh sách khách hàng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\Debug\MISA.Import-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E3B23-2D74-471A-92E8-AE530AF40F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EB023-93F8-4EE8-80CE-BE7C77E428AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1370,9 +1370,6 @@
     <t>KH007</t>
   </si>
   <si>
-    <t>Đinh Quang Đạt</t>
-  </si>
-  <si>
     <t>21/05/1999</t>
   </si>
   <si>
@@ -1386,6 +1383,9 @@
   </si>
   <si>
     <t>21/05/2001</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đạt Update</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,13 +2270,13 @@
         <v>444</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C6" s="4">
         <v>868389687</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>25</v>
@@ -2287,13 +2287,13 @@
         <v>444</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="4">
         <v>868389688</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
@@ -2304,13 +2304,13 @@
         <v>445</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="4">
         <v>868389689</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>

--- a/Danh sách khách hàng.xlsx
+++ b/Danh sách khách hàng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MISA\Debug\MISA.Import-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EB023-93F8-4EE8-80CE-BE7C77E428AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAE6B9-AE64-4C6E-8EDD-6ADD4F7A9F20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1908" yWindow="1908" windowWidth="21600" windowHeight="11388" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,7 +1385,7 @@
     <t>21/05/2001</t>
   </si>
   <si>
-    <t>Đinh Quang Đạt Update</t>
+    <t>Đinh Quang Đạt 1</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2180,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>448</v>
